--- a/output/survey_analysis_results.xlsx
+++ b/output/survey_analysis_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,20 +476,30 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Satisfaction (What did you like about the food/drinks?)_topic_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Satisfaction (What did you like about the food/drinks?)_topic_other</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Satisfaction (What did you like about the food/drinks?)_probability_0</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Satisfaction (What did you like about the food/drinks?)_probability_1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Satisfaction (What did you like about the food/drinks?)_probability_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Satisfaction (What did you like about the food/drinks?)_selected_topics</t>
         </is>
@@ -532,12 +542,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9364207541025964</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (0.94)</t>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7577779321358732</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (0.76)</t>
         </is>
       </c>
     </row>
@@ -578,12 +592,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7303686835898662</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (0.73)</t>
         </is>
       </c>
     </row>
@@ -615,21 +633,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1_decent_quick_service_lovely (1.00)</t>
         </is>
       </c>
     </row>
@@ -664,18 +686,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0.812867798090694</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1_popcorn_delicious_theater_drinks (0.81)</t>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0.7153274270108365</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2_popcorn_delicious_theater_drinks (0.72)</t>
         </is>
       </c>
     </row>
@@ -716,12 +742,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9005612922889776</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (0.90)</t>
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5598249018838625</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (0.56)</t>
         </is>
       </c>
     </row>
@@ -756,18 +786,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>1_popcorn_delicious_theater_drinks (1.00)</t>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2_popcorn_delicious_theater_drinks (1.00)</t>
         </is>
       </c>
     </row>
@@ -808,12 +842,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9578474762226435</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (0.96)</t>
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8390120942800927</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (0.84)</t>
         </is>
       </c>
     </row>
@@ -845,21 +883,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9063900651667157</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (0.91)</t>
+      <c r="L9" t="n">
+        <v>0.4883939159402211</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1_decent_quick_service_lovely (0.49)</t>
         </is>
       </c>
     </row>
@@ -891,21 +933,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7054102202624937</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (0.71)</t>
+      <c r="L10" t="n">
+        <v>0.3611547132633839</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1_decent_quick_service_lovely (0.36)</t>
         </is>
       </c>
     </row>
@@ -946,12 +992,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9399846329508317</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (0.94)</t>
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6024311757002234</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (0.60)</t>
         </is>
       </c>
     </row>
@@ -992,12 +1042,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.963589477278519</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (0.96)</t>
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.7861497429168984</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (0.79)</t>
         </is>
       </c>
     </row>
@@ -1037,9 +1091,13 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
         <is>
           <t>No topic</t>
         </is>
@@ -1073,21 +1131,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+      <c r="L14" t="n">
+        <v>0.6823566649000093</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1_decent_quick_service_lovely (0.68)</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1190,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9462435929084896</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (0.95)</t>
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.7955527216928728</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (0.80)</t>
         </is>
       </c>
     </row>
@@ -1168,18 +1234,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>1_popcorn_delicious_theater_drinks (1.00)</t>
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2_popcorn_delicious_theater_drinks (1.00)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1290,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8769720381881622</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (0.88)</t>
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4400903842814909</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (0.44)</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1340,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9042147879901301</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (0.90)</t>
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.5607208622040667</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (0.56)</t>
         </is>
       </c>
     </row>
@@ -1312,12 +1390,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (1.00)</t>
         </is>
       </c>
     </row>
@@ -1358,12 +1440,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9122850712407061</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (0.91)</t>
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.417616941843113</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (0.42)</t>
         </is>
       </c>
     </row>
@@ -1395,21 +1481,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1_decent_quick_service_lovely (1.00)</t>
         </is>
       </c>
     </row>
@@ -1444,18 +1534,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>0.6146854694308778</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1_popcorn_delicious_theater_drinks (0.61)</t>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2_popcorn_delicious_theater_drinks (1.00)</t>
         </is>
       </c>
     </row>
@@ -1496,12 +1590,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (1.00)</t>
         </is>
       </c>
     </row>
@@ -1542,12 +1640,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0_snacks_options_drinks_variety (1.00)</t>
         </is>
       </c>
     </row>
@@ -1579,21 +1681,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1_decent_quick_service_lovely (1.00)</t>
         </is>
       </c>
     </row>
@@ -1633,9 +1739,13 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
         <is>
           <t>No topic</t>
         </is>
@@ -1672,18 +1782,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1_popcorn_delicious_theater_drinks (1.00)</t>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>0.8556081758903566</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2_popcorn_delicious_theater_drinks (0.86)</t>
         </is>
       </c>
     </row>

--- a/output/survey_analysis_results.xlsx
+++ b/output/survey_analysis_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,42 +466,32 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction (What did you like about the food/drinks?)_topic_0</t>
+          <t>Dissatisfaction (What did you not like about the food/drinks?)_topic_0</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction (What did you like about the food/drinks?)_topic_1</t>
+          <t>Dissatisfaction (What did you not like about the food/drinks?)_topic_1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction (What did you like about the food/drinks?)_topic_2</t>
+          <t>Dissatisfaction (What did you not like about the food/drinks?)_topic_other</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction (What did you like about the food/drinks?)_topic_other</t>
+          <t>Dissatisfaction (What did you not like about the food/drinks?)_probability_0</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction (What did you like about the food/drinks?)_probability_0</t>
+          <t>Dissatisfaction (What did you not like about the food/drinks?)_probability_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction (What did you like about the food/drinks?)_probability_1</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Satisfaction (What did you like about the food/drinks?)_probability_2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Satisfaction (What did you like about the food/drinks?)_selected_topics</t>
+          <t>Dissatisfaction (What did you not like about the food/drinks?)_selected_topics</t>
         </is>
       </c>
     </row>
@@ -536,22 +526,20 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.4647897846611578</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7577779321358732</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (0.76)</t>
+        <v>0.4407571414341568</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.46), 1_wait_servers_overwhelmed_lines (0.44)</t>
         </is>
       </c>
     </row>
@@ -586,22 +574,20 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.3264026897531429</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7303686835898662</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (0.73)</t>
+        <v>0.4927466541491764</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1_wait_servers_overwhelmed_lines (0.49), 0_bit_food_options_high (0.33)</t>
         </is>
       </c>
     </row>
@@ -641,17 +627,13 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1_decent_quick_service_lovely (1.00)</t>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1_wait_servers_overwhelmed_lines (1.00)</t>
         </is>
       </c>
     </row>
@@ -683,25 +665,21 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>0.7153274270108365</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2_popcorn_delicious_theater_drinks (0.72)</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (1.00)</t>
         </is>
       </c>
     </row>
@@ -742,16 +720,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5598249018838625</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (0.56)</t>
+        <v>0.843321885082342</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.84)</t>
         </is>
       </c>
     </row>
@@ -783,25 +757,21 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.8654730083574341</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2_popcorn_delicious_theater_drinks (1.00)</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.87)</t>
         </is>
       </c>
     </row>
@@ -842,16 +812,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.8390120942800927</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (0.84)</t>
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (1.00)</t>
         </is>
       </c>
     </row>
@@ -886,22 +852,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>0.4883939159402211</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1_decent_quick_service_lovely (0.49)</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>No topic</t>
         </is>
       </c>
     </row>
@@ -933,7 +893,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -942,16 +902,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>0.3611547132633839</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1_decent_quick_service_lovely (0.36)</t>
+        <v>0.2336810893026459</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5114339274400829</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1_wait_servers_overwhelmed_lines (0.51), 0_bit_food_options_high (0.23)</t>
         </is>
       </c>
     </row>
@@ -983,25 +941,21 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>0.6024311757002234</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (0.60)</t>
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1_wait_servers_overwhelmed_lines (1.00)</t>
         </is>
       </c>
     </row>
@@ -1036,22 +990,20 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4438546478765369</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7861497429168984</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (0.79)</t>
+        <v>0.2682997673297456</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.44), 1_wait_servers_overwhelmed_lines (0.27)</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1035,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1092,14 +1044,12 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>No topic</t>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (1.00)</t>
         </is>
       </c>
     </row>
@@ -1131,25 +1081,21 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.8325773910476636</v>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>0.6823566649000093</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>1_decent_quick_service_lovely (0.68)</t>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.83)</t>
         </is>
       </c>
     </row>
@@ -1184,22 +1130,20 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.5573324323495951</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7955527216928728</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (0.80)</t>
+        <v>0.3482144937457196</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.56), 1_wait_servers_overwhelmed_lines (0.35)</t>
         </is>
       </c>
     </row>
@@ -1231,25 +1175,21 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2_popcorn_delicious_theater_drinks (1.00)</t>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (1.00)</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1224,20 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.5475267707298819</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4400903842814909</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (0.44)</t>
+        <v>0.3580201553654329</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.55), 1_wait_servers_overwhelmed_lines (0.36)</t>
         </is>
       </c>
     </row>
@@ -1334,22 +1272,20 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.5713077107799732</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5607208622040667</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (0.56)</t>
+        <v>0.3342392153153416</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.57), 1_wait_servers_overwhelmed_lines (0.33)</t>
         </is>
       </c>
     </row>
@@ -1390,16 +1326,12 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (1.00)</t>
+        <v>0.649466268218431</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.65)</t>
         </is>
       </c>
     </row>
@@ -1440,16 +1372,12 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.417616941843113</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (0.42)</t>
+        <v>1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (1.00)</t>
         </is>
       </c>
     </row>
@@ -1481,25 +1409,21 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.8949355742052779</v>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>1_decent_quick_service_lovely (1.00)</t>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.89)</t>
         </is>
       </c>
     </row>
@@ -1534,22 +1458,18 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2_popcorn_delicious_theater_drinks (1.00)</t>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1_wait_servers_overwhelmed_lines (1.00)</t>
         </is>
       </c>
     </row>
@@ -1581,25 +1501,21 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (1.00)</t>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1_wait_servers_overwhelmed_lines (1.00)</t>
         </is>
       </c>
     </row>
@@ -1640,16 +1556,12 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>0_snacks_options_drinks_variety (1.00)</t>
+        <v>0.8673051429232408</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.87)</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1593,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1690,16 +1602,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>1_decent_quick_service_lovely (1.00)</t>
+        <v>0.5909757421224975</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.2622405655995481</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.59), 1_wait_servers_overwhelmed_lines (0.26)</t>
         </is>
       </c>
     </row>
@@ -1731,23 +1641,23 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>No topic</t>
+        <v>0.6429731324393176</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2818835973189662</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (0.64), 1_wait_servers_overwhelmed_lines (0.28)</t>
         </is>
       </c>
     </row>
@@ -1779,25 +1689,21 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>0.8556081758903566</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2_popcorn_delicious_theater_drinks (0.86)</t>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0_bit_food_options_high (1.00)</t>
         </is>
       </c>
     </row>

--- a/output/survey_analysis_results.xlsx
+++ b/output/survey_analysis_results.xlsx
@@ -532,12 +532,12 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9268818389911726</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.93)</t>
+          <t>0_snacks_drinks_options_selection (1.00)</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9364313183767213</v>
+        <v>0.9770183553998822</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.94)</t>
+          <t>0_snacks_drinks_options_selection (0.98)</t>
         </is>
       </c>
     </row>
@@ -671,11 +671,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>0.9763092665859724</v>
+        <v>1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1_popcorn_delicious_theater_drinks (0.98)</t>
+          <t>1_popcorn_delicious_theater_drinks (1.00)</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9498374995119703</v>
+        <v>0.9581273888061902</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.95)</t>
+          <t>0_snacks_drinks_options_selection (0.96)</t>
         </is>
       </c>
     </row>
@@ -763,11 +763,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.9482066894032035</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1_popcorn_delicious_theater_drinks (1.00)</t>
+          <t>1_popcorn_delicious_theater_drinks (0.95)</t>
         </is>
       </c>
     </row>
@@ -808,12 +808,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.9678238499741967</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+          <t>0_snacks_drinks_options_selection (0.97)</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9206691522033045</v>
+        <v>0.9476593189724111</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.92)</t>
+          <t>0_snacks_drinks_options_selection (0.95)</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9017309056062467</v>
+        <v>0.9282182887957537</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.90)</t>
+          <t>0_snacks_drinks_options_selection (0.93)</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.9238066120026879</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+          <t>0_snacks_drinks_options_selection (0.92)</t>
         </is>
       </c>
     </row>
@@ -992,12 +992,12 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9659572182635675</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.97)</t>
+          <t>0_snacks_drinks_options_selection (1.00)</t>
         </is>
       </c>
     </row>
@@ -1082,12 +1082,12 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9570581427750228</v>
+        <v>0.9694607416387755</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.96)</t>
+          <t>0_snacks_drinks_options_selection (0.97)</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.9350347257548218</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+          <t>0_snacks_drinks_options_selection (0.94)</t>
         </is>
       </c>
     </row>
@@ -1175,11 +1175,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.8530146029691202</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1_popcorn_delicious_theater_drinks (1.00)</t>
+          <t>1_popcorn_delicious_theater_drinks (0.85)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0.9226432368494627</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+          <t>0_snacks_drinks_options_selection (0.92)</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.9242094623212482</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+          <t>0_snacks_drinks_options_selection (0.92)</t>
         </is>
       </c>
     </row>
@@ -1312,12 +1312,12 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9484539710676975</v>
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.95)</t>
+          <t>0_snacks_drinks_options_selection (1.00)</t>
         </is>
       </c>
     </row>
@@ -1358,12 +1358,12 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9066519869024089</v>
+        <v>0.8898202343253414</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.91)</t>
+          <t>0_snacks_drinks_options_selection (0.89)</t>
         </is>
       </c>
     </row>
@@ -1496,12 +1496,12 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.9688380750047906</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+          <t>0_snacks_drinks_options_selection (0.97)</t>
         </is>
       </c>
     </row>
@@ -1542,12 +1542,12 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9561337614516475</v>
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.96)</t>
+          <t>0_snacks_drinks_options_selection (1.00)</t>
         </is>
       </c>
     </row>
@@ -1679,11 +1679,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>0.8163759491968531</v>
+        <v>1</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1_popcorn_delicious_theater_drinks (0.82)</t>
+          <t>1_popcorn_delicious_theater_drinks (1.00)</t>
         </is>
       </c>
     </row>

--- a/output/survey_analysis_results.xlsx
+++ b/output/survey_analysis_results.xlsx
@@ -532,12 +532,12 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.9286814004963614</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+          <t>0_snacks_drinks_options_selection (0.93)</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9770183553998822</v>
+        <v>0.9645395931466063</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.98)</t>
+          <t>0_snacks_drinks_options_selection (0.96)</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9581273888061902</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.96)</t>
+          <t>0_snacks_drinks_options_selection (1.00)</t>
         </is>
       </c>
     </row>
@@ -763,11 +763,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.9482066894032035</v>
+        <v>1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1_popcorn_delicious_theater_drinks (0.95)</t>
+          <t>1_popcorn_delicious_theater_drinks (1.00)</t>
         </is>
       </c>
     </row>
@@ -808,12 +808,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9678238499741967</v>
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.97)</t>
+          <t>0_snacks_drinks_options_selection (1.00)</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9476593189724111</v>
+        <v>0.8757138251705208</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.95)</t>
+          <t>0_snacks_drinks_options_selection (0.88)</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9282182887957537</v>
+        <v>0.7103958151126678</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.93)</t>
+          <t>0_snacks_drinks_options_selection (0.71)</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9238066120026879</v>
+        <v>0.960696486239336</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.92)</t>
+          <t>0_snacks_drinks_options_selection (0.96)</t>
         </is>
       </c>
     </row>
@@ -992,12 +992,12 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.932021813158098</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (1.00)</t>
+          <t>0_snacks_drinks_options_selection (0.93)</t>
         </is>
       </c>
     </row>
@@ -1082,12 +1082,12 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9694607416387755</v>
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.97)</t>
+          <t>0_snacks_drinks_options_selection (1.00)</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9350347257548218</v>
+        <v>0.9518499966558206</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.94)</t>
+          <t>0_snacks_drinks_options_selection (0.95)</t>
         </is>
       </c>
     </row>
@@ -1175,11 +1175,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>0.8530146029691202</v>
+        <v>0.9493283413489942</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1_popcorn_delicious_theater_drinks (0.85)</t>
+          <t>1_popcorn_delicious_theater_drinks (0.95)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9226432368494627</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.92)</t>
+          <t>0_snacks_drinks_options_selection (1.00)</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9242094623212482</v>
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.92)</t>
+          <t>0_snacks_drinks_options_selection (1.00)</t>
         </is>
       </c>
     </row>
@@ -1358,12 +1358,12 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8898202343253414</v>
+        <v>0.9041318868709286</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.89)</t>
+          <t>0_snacks_drinks_options_selection (0.90)</t>
         </is>
       </c>
     </row>
@@ -1496,12 +1496,12 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9688380750047906</v>
+        <v>0.9426970244603338</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0_snacks_drinks_options_selection (0.97)</t>
+          <t>0_snacks_drinks_options_selection (0.94)</t>
         </is>
       </c>
     </row>
@@ -1679,11 +1679,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.7301590540197415</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1_popcorn_delicious_theater_drinks (1.00)</t>
+          <t>1_popcorn_delicious_theater_drinks (0.73)</t>
         </is>
       </c>
     </row>
